--- a/Documents/Class_v1.xlsx
+++ b/Documents/Class_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal_Files\GoodTeam\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB0A686-B00C-4FD1-AFC6-3A2826FDD2C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AAF2F9-C190-4CFA-906A-6634C55F0DED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Fragment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,56 +60,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Management for Boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;itemAnnouncement&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data class(VO)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For static variables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main Frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schedule for Worker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Get datas from server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Object for announcement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Management for Boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;itemAnnouncement&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Object</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Class type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data class(VO)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataObject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>For static variables</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>View announcement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main Frame</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Schedule for Worker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- Get datas from server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- Write &amp; enroll new Announcement
-- Post new announce into server</t>
+  </si>
+  <si>
+    <t>Post new announce into server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Write &amp; enroll new Announcement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View announcement by self</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View announcements</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -270,9 +280,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -282,18 +314,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -309,24 +341,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -336,45 +350,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -397,71 +446,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="직선 연결선 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7207002D-8322-46AC-96FD-618350A5300B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2800350" y="809625"/>
-          <a:ext cx="1895475" cy="1876425"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="solid"/>
-          <a:headEnd type="arrow" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>593911</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -475,9 +469,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7477125" y="1581150"/>
-          <a:ext cx="485775" cy="695325"/>
+        <a:xfrm>
+          <a:off x="8303559" y="5277971"/>
+          <a:ext cx="1176617" cy="896470"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -507,91 +501,78 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>63626</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>136399</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>263651</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>139828</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="이등변 삼각형 7">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="직선 연결선 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD97DB2A-D206-4BB6-B021-05830F155B7F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF23A489-4CCF-4E8A-8BB8-DC6E5B59E3D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="6191248">
-          <a:off x="11029949" y="4867276"/>
-          <a:ext cx="212979" cy="200025"/>
+        <a:xfrm flipH="1">
+          <a:off x="4157383" y="5087471"/>
+          <a:ext cx="1221441" cy="672353"/>
         </a:xfrm>
-        <a:prstGeom prst="triangle">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
         <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
+          <a:prstDash val="lgDash"/>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="직선 연결선 10">
+        <xdr:cNvPr id="32" name="직선 화살표 연결선 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C99C8CC-11AA-49D5-8367-D50AE32F4655}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0876830-9A85-442D-8607-22337D750EFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -599,10 +580,10 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2819400" y="2781300"/>
-          <a:ext cx="1200150" cy="152400"/>
+          <a:off x="11687735" y="4863353"/>
+          <a:ext cx="1187824" cy="235323"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -630,32 +611,87 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>104776</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>605117</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="직선 연결선 15">
+        <xdr:cNvPr id="35" name="직선 화살표 연결선 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF23A489-4CCF-4E8A-8BB8-DC6E5B59E3D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5859F2A9-89FB-4684-AA91-FED7ADE25DEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7648576" y="904876"/>
-          <a:ext cx="3867149" cy="1390649"/>
+        <a:xfrm flipH="1">
+          <a:off x="8292353" y="4852147"/>
+          <a:ext cx="1199029" cy="246530"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>593913</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="직선 연결선 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA25F750-2200-4226-972B-FE9C47463E9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8281148" y="5121088"/>
+          <a:ext cx="4616824" cy="11206"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -937,7 +973,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr>
+        <a:ln>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="arrow" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -949,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:U21"/>
+  <dimension ref="B1:AB56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -965,104 +1027,72 @@
       <c r="R1" s="1"/>
     </row>
     <row r="2" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="H2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
     </row>
     <row r="3" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="H4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="H5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="16"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B6" s="5"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
     </row>
     <row r="7" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
       <c r="U7" s="1"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
@@ -1077,163 +1107,758 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="2" t="s">
+    <row r="16" spans="2:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="4:28" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="4:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="4:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D23" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="I23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="15"/>
+      <c r="O23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="12"/>
+      <c r="T23" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="15"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+    </row>
+    <row r="24" spans="4:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D24" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="I24" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="G12" s="6" t="s">
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="15"/>
+      <c r="O24" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="12"/>
+      <c r="T24" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="15"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="37"/>
+    </row>
+    <row r="25" spans="4:28" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="I25" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="45"/>
+      <c r="O25" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="27"/>
+      <c r="T25" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="48"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="38"/>
+    </row>
+    <row r="26" spans="4:28" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+      <c r="I26" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="24"/>
+      <c r="O26" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="27"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="51"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="39"/>
+    </row>
+    <row r="27" spans="4:28" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="30"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="6"/>
+      <c r="T27" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="33"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+    </row>
+    <row r="28" spans="4:28" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I28" s="7"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="9"/>
+      <c r="O28" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="8"/>
-      <c r="L12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="4"/>
-      <c r="R12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="S12" s="7"/>
-      <c r="T12" s="8"/>
-    </row>
-    <row r="13" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="G13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
-      <c r="L13" s="6" t="s">
+      <c r="P28" s="14"/>
+      <c r="Q28" s="15"/>
+      <c r="T28" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="33"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="39"/>
+    </row>
+    <row r="29" spans="4:28" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="O29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="12"/>
+      <c r="T29" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="33"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="39"/>
+    </row>
+    <row r="30" spans="4:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O30" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="8"/>
-      <c r="R13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="4"/>
-    </row>
-    <row r="14" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="G14" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="4"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="13"/>
-    </row>
-    <row r="15" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="14"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
-      <c r="L15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="13"/>
-      <c r="R15" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="S15" s="32"/>
-      <c r="T15" s="33"/>
-    </row>
-    <row r="16" spans="2:21" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="G16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="33"/>
-    </row>
-    <row r="17" spans="7:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="36"/>
-    </row>
-    <row r="18" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G18" s="23"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
-    </row>
-    <row r="19" spans="7:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
-    </row>
-    <row r="20" spans="7:20" x14ac:dyDescent="0.3">
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
-    </row>
-    <row r="21" spans="7:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G21" s="26"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="28"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="12"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="33"/>
+      <c r="Y30" s="39"/>
+      <c r="Z30" s="39"/>
+      <c r="AA30" s="39"/>
+      <c r="AB30" s="39"/>
+    </row>
+    <row r="31" spans="4:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O31" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="12"/>
+      <c r="T31" s="34"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="36"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
+    </row>
+    <row r="32" spans="4:28" x14ac:dyDescent="0.3">
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="40"/>
+      <c r="AA32" s="40"/>
+      <c r="AB32" s="40"/>
+    </row>
+    <row r="33" spans="6:28" x14ac:dyDescent="0.3">
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="40"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="40"/>
+    </row>
+    <row r="34" spans="6:28" x14ac:dyDescent="0.3">
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
+      <c r="AA34" s="37"/>
+      <c r="AB34" s="37"/>
+    </row>
+    <row r="35" spans="6:28" x14ac:dyDescent="0.3">
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="40"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="37"/>
+      <c r="AA35" s="37"/>
+      <c r="AB35" s="37"/>
+    </row>
+    <row r="36" spans="6:28" x14ac:dyDescent="0.3">
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="38"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="Y36" s="38"/>
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="38"/>
+      <c r="AB36" s="38"/>
+    </row>
+    <row r="37" spans="6:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="39"/>
+      <c r="AA37" s="39"/>
+      <c r="AB37" s="39"/>
+    </row>
+    <row r="38" spans="6:28" x14ac:dyDescent="0.3">
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="39"/>
+      <c r="V38" s="39"/>
+      <c r="W38" s="39"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="39"/>
+      <c r="AA38" s="39"/>
+      <c r="AB38" s="39"/>
+    </row>
+    <row r="39" spans="6:28" x14ac:dyDescent="0.3">
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="39"/>
+      <c r="V39" s="39"/>
+      <c r="W39" s="39"/>
+      <c r="Y39" s="39"/>
+      <c r="Z39" s="39"/>
+      <c r="AA39" s="39"/>
+      <c r="AB39" s="39"/>
+    </row>
+    <row r="40" spans="6:28" x14ac:dyDescent="0.3">
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="40"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="39"/>
+      <c r="U40" s="39"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="39"/>
+      <c r="Y40" s="39"/>
+      <c r="Z40" s="39"/>
+      <c r="AA40" s="39"/>
+      <c r="AB40" s="39"/>
+    </row>
+    <row r="41" spans="6:28" x14ac:dyDescent="0.3">
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="40"/>
+      <c r="N41" s="40"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="Y41" s="39"/>
+      <c r="Z41" s="39"/>
+      <c r="AA41" s="39"/>
+      <c r="AB41" s="39"/>
+    </row>
+    <row r="42" spans="6:28" x14ac:dyDescent="0.3">
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="39"/>
+      <c r="Y42" s="39"/>
+      <c r="Z42" s="39"/>
+      <c r="AA42" s="39"/>
+      <c r="AB42" s="39"/>
+    </row>
+    <row r="43" spans="6:28" x14ac:dyDescent="0.3">
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="40"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="40"/>
+      <c r="Y43" s="41"/>
+      <c r="Z43" s="41"/>
+      <c r="AA43" s="41"/>
+      <c r="AB43" s="41"/>
+    </row>
+    <row r="44" spans="6:28" x14ac:dyDescent="0.3">
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="40"/>
+      <c r="T44" s="40"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="40"/>
+      <c r="W44" s="40"/>
+    </row>
+    <row r="45" spans="6:28" x14ac:dyDescent="0.3">
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+    </row>
+    <row r="46" spans="6:28" x14ac:dyDescent="0.3">
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="40"/>
+      <c r="S46" s="40"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+    </row>
+    <row r="47" spans="6:28" x14ac:dyDescent="0.3">
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="38"/>
+      <c r="U47" s="38"/>
+      <c r="V47" s="38"/>
+      <c r="W47" s="38"/>
+    </row>
+    <row r="48" spans="6:28" x14ac:dyDescent="0.3">
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="40"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="39"/>
+    </row>
+    <row r="49" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
+      <c r="V49" s="39"/>
+      <c r="W49" s="39"/>
+    </row>
+    <row r="50" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="40"/>
+      <c r="T50" s="39"/>
+      <c r="U50" s="39"/>
+      <c r="V50" s="39"/>
+      <c r="W50" s="39"/>
+    </row>
+    <row r="51" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="38"/>
+      <c r="P51" s="38"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="40"/>
+      <c r="T51" s="39"/>
+      <c r="U51" s="39"/>
+      <c r="V51" s="39"/>
+      <c r="W51" s="39"/>
+    </row>
+    <row r="52" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="38"/>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="38"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="39"/>
+    </row>
+    <row r="53" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="39"/>
+      <c r="W53" s="39"/>
+    </row>
+    <row r="54" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+    </row>
+    <row r="55" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="40"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="40"/>
+      <c r="U55" s="40"/>
+      <c r="V55" s="40"/>
+      <c r="W55" s="40"/>
+    </row>
+    <row r="56" spans="6:23" x14ac:dyDescent="0.3">
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="40"/>
+      <c r="S56" s="40"/>
+      <c r="T56" s="40"/>
+      <c r="U56" s="40"/>
+      <c r="V56" s="40"/>
+      <c r="W56" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="R15:T17"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="G16:J21"/>
-    <mergeCell ref="G14:J15"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K7"/>
+  <mergeCells count="30">
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="O31:Q31"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="O28:Q28"/>
+    <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="O30:Q30"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I26:L28"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="O23:Q23"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="O24:Q24"/>
     <mergeCell ref="B5:D7"/>
-    <mergeCell ref="B14:D16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
